--- a/data/trans_orig/P24D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80AC181-2E78-4884-9277-2A3EF6110CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0E9924-DFED-4914-AB45-44BB42F90F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D04A7D1B-98F3-4642-AA64-F9F6121ED19E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C8DCBA6-7CF0-45A6-8357-FDBF3B609C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,77%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>34,35%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>58,57%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1681 +197,1699 @@
     <t>19,44%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>20,42%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>61,48%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
   </si>
   <si>
     <t>58,51%</t>
@@ -2289,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43466FBF-88D0-4006-822F-9680CA4BBA30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD99194-73BD-4DDC-8D9B-F7D7833A20FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2884,7 +2902,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2893,13 +2911,13 @@
         <v>40223</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -2908,13 +2926,13 @@
         <v>90315</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2947,13 @@
         <v>119426</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -2944,13 +2962,13 @@
         <v>61356</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>185</v>
@@ -2959,13 +2977,13 @@
         <v>180782</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +3039,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3033,13 +3051,13 @@
         <v>28621</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3048,13 +3066,13 @@
         <v>22206</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -3063,13 +3081,13 @@
         <v>50826</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3102,13 @@
         <v>55708</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3099,13 +3117,13 @@
         <v>37320</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3114,13 +3132,13 @@
         <v>93029</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3194,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3188,13 +3206,13 @@
         <v>42631</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3203,13 +3221,13 @@
         <v>21935</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -3218,13 +3236,13 @@
         <v>64566</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3257,13 @@
         <v>81721</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -3254,13 +3272,13 @@
         <v>43072</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -3269,13 +3287,13 @@
         <v>124794</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3349,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3343,13 +3361,13 @@
         <v>82881</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -3358,13 +3376,13 @@
         <v>69267</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -3373,13 +3391,13 @@
         <v>152148</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3412,13 @@
         <v>152095</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -3409,13 +3427,13 @@
         <v>91149</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -3424,13 +3442,13 @@
         <v>243244</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +3504,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3498,13 +3516,13 @@
         <v>92287</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3513,13 +3531,13 @@
         <v>57917</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -3528,13 +3546,13 @@
         <v>150204</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,10 +3567,10 @@
         <v>223737</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>155</v>
@@ -3689,7 +3707,7 @@
         <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3722,13 @@
         <v>960280</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -3719,13 +3737,13 @@
         <v>556464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1486</v>
@@ -3734,13 +3752,13 @@
         <v>1516744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3814,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D739F7-572E-450D-9E48-190A346D9778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F4616-8778-4283-B47B-4A5045C5E080}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3837,7 +3855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3942,39 +3960,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,39 +4005,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,39 +4050,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4099,13 @@
         <v>104731</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -4096,13 +4114,13 @@
         <v>65994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -4111,13 +4129,13 @@
         <v>170725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4150,13 @@
         <v>103374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4147,13 +4165,13 @@
         <v>85224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -4162,13 +4180,13 @@
         <v>188598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4254,13 @@
         <v>49866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4251,13 +4269,13 @@
         <v>47615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -4266,13 +4284,13 @@
         <v>97481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4305,13 @@
         <v>77171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4302,13 +4320,13 @@
         <v>36114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4317,13 +4335,13 @@
         <v>113286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4409,13 @@
         <v>152414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4406,13 +4424,13 @@
         <v>133411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -4421,13 +4439,13 @@
         <v>285824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4460,13 @@
         <v>113801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4457,13 +4475,13 @@
         <v>68503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -4472,13 +4490,13 @@
         <v>182305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4552,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4546,13 +4564,13 @@
         <v>49153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4561,13 +4579,13 @@
         <v>34901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4576,13 +4594,13 @@
         <v>84054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4615,13 @@
         <v>42246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4612,13 +4630,13 @@
         <v>30538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -4627,13 +4645,13 @@
         <v>72785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4707,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4701,13 +4719,13 @@
         <v>45179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4716,13 +4734,13 @@
         <v>38125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4731,13 +4749,13 @@
         <v>83304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4770,13 @@
         <v>38561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4767,13 +4785,13 @@
         <v>28754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -4782,13 +4800,13 @@
         <v>67315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4862,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4856,13 +4874,13 @@
         <v>107519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4871,13 +4889,13 @@
         <v>95426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -4886,13 +4904,13 @@
         <v>202945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4925,13 @@
         <v>171722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -4922,13 +4940,13 @@
         <v>97845</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>253</v>
@@ -4937,13 +4955,13 @@
         <v>269567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,7 +5017,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5011,13 +5029,13 @@
         <v>117733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5026,13 +5044,13 @@
         <v>80685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5041,13 +5059,13 @@
         <v>198418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5080,13 @@
         <v>178421</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>114</v>
@@ -5077,13 +5095,13 @@
         <v>126058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -5092,13 +5110,13 @@
         <v>304479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5184,13 @@
         <v>626595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>455</v>
@@ -5181,13 +5199,13 @@
         <v>496158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1030</v>
@@ -5196,13 +5214,13 @@
         <v>1122752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5235,13 @@
         <v>725297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>438</v>
@@ -5232,13 +5250,13 @@
         <v>473036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>1130</v>
@@ -5247,13 +5265,13 @@
         <v>1198334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5327,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DB2C10-791B-48FF-B52E-EF117CAA9C5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E199DE-4E84-4925-9A6E-DB614F0D8885}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5475,13 @@
         <v>66639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5472,13 +5490,13 @@
         <v>41884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5487,13 +5505,13 @@
         <v>108523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5526,13 @@
         <v>39692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5523,13 +5541,13 @@
         <v>31830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -5538,13 +5556,13 @@
         <v>71522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5630,13 @@
         <v>40999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5627,13 +5645,13 @@
         <v>37327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -5642,13 +5660,13 @@
         <v>78326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5681,13 @@
         <v>168042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -5678,13 +5696,13 @@
         <v>103521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>256</v>
@@ -5693,13 +5711,13 @@
         <v>271564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5785,13 @@
         <v>35301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5782,13 +5800,13 @@
         <v>40176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -5797,13 +5815,13 @@
         <v>75477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5836,13 @@
         <v>61030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5833,13 +5851,13 @@
         <v>41227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5848,13 +5866,13 @@
         <v>102257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5940,13 @@
         <v>88372</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5937,13 +5955,13 @@
         <v>56794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5952,13 +5970,13 @@
         <v>145166</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5991,13 @@
         <v>50915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5988,13 +6006,13 @@
         <v>51963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -6003,13 +6021,13 @@
         <v>102878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,7 +6083,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6077,13 +6095,13 @@
         <v>41327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -6092,13 +6110,13 @@
         <v>29961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6107,13 +6125,13 @@
         <v>71288</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6146,13 @@
         <v>43804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6143,13 +6161,13 @@
         <v>26682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -6158,13 +6176,13 @@
         <v>70486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,7 +6238,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6232,13 +6250,13 @@
         <v>40947</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6247,13 +6265,13 @@
         <v>23576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6262,13 +6280,13 @@
         <v>64523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6301,13 @@
         <v>47283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6298,13 +6316,13 @@
         <v>49482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -6313,13 +6331,13 @@
         <v>96765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6393,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6387,13 +6405,13 @@
         <v>71247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6402,13 +6420,13 @@
         <v>66909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6417,13 +6435,13 @@
         <v>138156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6456,13 @@
         <v>125482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -6453,13 +6471,13 @@
         <v>106358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>212</v>
@@ -6468,13 +6486,13 @@
         <v>231840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,7 +6548,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6542,13 +6560,13 @@
         <v>120288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6557,13 +6575,13 @@
         <v>112781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -6572,13 +6590,13 @@
         <v>233069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6611,13 @@
         <v>134770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -6608,13 +6626,13 @@
         <v>101507</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -6623,13 +6641,13 @@
         <v>236278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6715,13 @@
         <v>505119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>395</v>
@@ -6712,13 +6730,13 @@
         <v>409409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>865</v>
@@ -6727,13 +6745,13 @@
         <v>914528</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6766,13 @@
         <v>671018</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>498</v>
@@ -6763,13 +6781,13 @@
         <v>512570</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>1122</v>
@@ -6778,13 +6796,13 @@
         <v>1183588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6858,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6864,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153DCC02-AC77-4139-94DC-F779180256B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F762586-A967-480C-892D-B71480425068}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6988,13 +7006,13 @@
         <v>32354</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -7003,13 +7021,13 @@
         <v>30347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
@@ -7018,13 +7036,13 @@
         <v>62701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7057,13 @@
         <v>36509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -7054,13 +7072,13 @@
         <v>30429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -7069,13 +7087,13 @@
         <v>66939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7161,13 @@
         <v>53170</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7158,13 +7176,13 @@
         <v>45652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -7173,13 +7191,13 @@
         <v>98822</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7212,13 @@
         <v>75549</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -7209,13 +7227,13 @@
         <v>58853</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -7224,13 +7242,13 @@
         <v>134402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7316,13 @@
         <v>30248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -7313,10 +7331,10 @@
         <v>35376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>47</v>
@@ -7328,13 +7346,13 @@
         <v>65624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7367,13 @@
         <v>45611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -7364,13 +7382,13 @@
         <v>32230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7379,13 +7397,13 @@
         <v>77841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7471,13 @@
         <v>28060</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -7468,13 +7486,13 @@
         <v>31803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>518</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -7483,13 +7501,13 @@
         <v>59863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7522,13 @@
         <v>47368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -7519,10 +7537,10 @@
         <v>46614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>527</v>
@@ -7596,7 +7614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7751,7 +7769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7781,13 @@
         <v>18784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7778,13 +7796,13 @@
         <v>14057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -7793,13 +7811,13 @@
         <v>32841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7832,13 @@
         <v>58578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -7829,13 +7847,13 @@
         <v>37545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -7844,13 +7862,13 @@
         <v>96122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7924,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7918,13 +7936,13 @@
         <v>80907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>569</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -7933,13 +7951,13 @@
         <v>87569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -7948,13 +7966,13 @@
         <v>168475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7987,13 @@
         <v>88197</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -7984,13 +8002,13 @@
         <v>72909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
@@ -7999,13 +8017,13 @@
         <v>161106</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,7 +8079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8073,13 +8091,13 @@
         <v>48787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -8088,13 +8106,13 @@
         <v>54212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -8103,13 +8121,13 @@
         <v>102999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8142,13 @@
         <v>167805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -8139,13 +8157,13 @@
         <v>90440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -8154,13 +8172,13 @@
         <v>258245</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8246,13 @@
         <v>293753</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>419</v>
@@ -8243,13 +8261,13 @@
         <v>303240</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="M28" s="7">
         <v>714</v>
@@ -8258,13 +8276,13 @@
         <v>596994</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8297,13 @@
         <v>555173</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H29" s="7">
         <v>525</v>
@@ -8294,13 +8312,13 @@
         <v>397632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>1037</v>
@@ -8309,13 +8327,13 @@
         <v>952805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>616</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,7 +8389,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0E9924-DFED-4914-AB45-44BB42F90F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC34A35-6C29-4F69-BC0F-7AD80AE45808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C8DCBA6-7CF0-45A6-8357-FDBF3B609C3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F75A2D8-94D2-4671-A50A-C13B796D47C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,77%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>34,35%</t>
   </si>
   <si>
-    <t>27,42%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>41,79%</t>
@@ -149,1479 +149,1491 @@
     <t>41,43%</t>
   </si>
   <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
     <t>33,01%</t>
   </si>
   <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>53,01%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>46,99%</t>
   </si>
   <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
     <t>70,97%</t>
   </si>
   <si>
@@ -1694,9 +1706,6 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
     <t>27,24%</t>
   </si>
   <si>
@@ -1718,9 +1727,6 @@
     <t>75,72%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
     <t>84,15%</t>
   </si>
   <si>
@@ -1754,9 +1760,6 @@
     <t>54,57%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
     <t>61,62%</t>
   </si>
   <si>
@@ -1784,9 +1787,6 @@
     <t>38,38%</t>
   </si>
   <si>
-    <t>53,1%</t>
-  </si>
-  <si>
     <t>48,88%</t>
   </si>
   <si>
@@ -1811,9 +1811,6 @@
     <t>30,18%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
     <t>28,51%</t>
   </si>
   <si>
@@ -1835,9 +1832,6 @@
     <t>62,52%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
     <t>69,82%</t>
   </si>
   <si>
@@ -1871,9 +1865,6 @@
     <t>36,05%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
     <t>65,4%</t>
   </si>
   <si>
@@ -1890,9 +1881,6 @@
   </si>
   <si>
     <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
   </si>
   <si>
     <t>63,95%</t>
@@ -2307,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD99194-73BD-4DDC-8D9B-F7D7833A20FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D1C0B2-289F-4AC4-B1AF-BF1493C74967}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2902,7 +2890,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2911,13 +2899,13 @@
         <v>40223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -2926,13 +2914,13 @@
         <v>90315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2935,13 @@
         <v>119426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -2962,13 +2950,13 @@
         <v>61356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>185</v>
@@ -2977,13 +2965,13 @@
         <v>180782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,7 +3027,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3051,13 +3039,13 @@
         <v>28621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3066,13 +3054,13 @@
         <v>22206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -3081,13 +3069,13 @@
         <v>50826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3090,13 @@
         <v>55708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3117,13 +3105,13 @@
         <v>37320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3132,13 +3120,13 @@
         <v>93029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3206,13 +3194,13 @@
         <v>42631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3221,13 +3209,13 @@
         <v>21935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -3236,13 +3224,13 @@
         <v>64566</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3245,13 @@
         <v>81721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -3272,13 +3260,13 @@
         <v>43072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -3287,13 +3275,13 @@
         <v>124794</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3361,13 +3349,13 @@
         <v>82881</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -3376,13 +3364,13 @@
         <v>69267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -3391,13 +3379,13 @@
         <v>152148</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3400,13 @@
         <v>152095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -3427,13 +3415,13 @@
         <v>91149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -3442,13 +3430,13 @@
         <v>243244</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3516,13 +3504,13 @@
         <v>92287</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3531,13 +3519,13 @@
         <v>57917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -3546,13 +3534,13 @@
         <v>150204</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3555,13 @@
         <v>223737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -3582,13 +3570,13 @@
         <v>127300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>338</v>
@@ -3597,13 +3585,13 @@
         <v>351036</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3659,13 @@
         <v>420548</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>289</v>
@@ -3686,13 +3674,13 @@
         <v>298010</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>696</v>
@@ -3701,13 +3689,13 @@
         <v>718558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3710,13 @@
         <v>960280</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -3737,13 +3725,13 @@
         <v>556464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1486</v>
@@ -3752,10 +3740,10 @@
         <v>1516744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>179</v>
@@ -3838,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F4616-8778-4283-B47B-4A5045C5E080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8877A70E-7EBF-4146-9DB6-C571A33BAE3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,7 +4278,7 @@
         <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4293,13 @@
         <v>77171</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4320,13 +4308,13 @@
         <v>36114</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4335,13 +4323,13 @@
         <v>113286</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4397,13 @@
         <v>152414</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4424,13 +4412,13 @@
         <v>133411</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -4439,13 +4427,13 @@
         <v>285824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4448,13 @@
         <v>113801</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4475,13 +4463,13 @@
         <v>68503</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -4490,13 +4478,13 @@
         <v>182305</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,7 +4540,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4564,13 +4552,13 @@
         <v>49153</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4579,13 +4567,13 @@
         <v>34901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4594,13 +4582,13 @@
         <v>84054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4603,13 @@
         <v>42246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4630,13 +4618,13 @@
         <v>30538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -4645,13 +4633,13 @@
         <v>72785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4695,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4719,13 +4707,13 @@
         <v>45179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4734,13 +4722,13 @@
         <v>38125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4749,13 +4737,13 @@
         <v>83304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4758,13 @@
         <v>38561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4785,13 +4773,13 @@
         <v>28754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -4800,13 +4788,13 @@
         <v>67315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4850,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4862,13 @@
         <v>107519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4889,13 +4877,13 @@
         <v>95426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -4904,13 +4892,13 @@
         <v>202945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,10 +4913,10 @@
         <v>171722</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>280</v>
@@ -4946,7 +4934,7 @@
         <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>253</v>
@@ -4955,13 +4943,13 @@
         <v>269567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5017,13 @@
         <v>117733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5044,13 +5032,13 @@
         <v>80685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5059,13 +5047,13 @@
         <v>198418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5068,13 @@
         <v>178421</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>114</v>
@@ -5095,13 +5083,13 @@
         <v>126058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -5110,13 +5098,13 @@
         <v>304479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5172,13 @@
         <v>626595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>455</v>
@@ -5199,13 +5187,13 @@
         <v>496158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1030</v>
@@ -5214,13 +5202,13 @@
         <v>1122752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5223,13 @@
         <v>725297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>438</v>
@@ -5250,13 +5238,13 @@
         <v>473036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>1130</v>
@@ -5265,13 +5253,13 @@
         <v>1198334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E199DE-4E84-4925-9A6E-DB614F0D8885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33083098-AF5B-4414-98F7-A874FC5B8781}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,13 +5463,13 @@
         <v>66639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5490,13 +5478,13 @@
         <v>41884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5505,13 +5493,13 @@
         <v>108523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5514,13 @@
         <v>39692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5541,13 +5529,13 @@
         <v>31830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -5556,10 +5544,10 @@
         <v>71522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>335</v>
@@ -5973,10 +5961,10 @@
         <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5979,13 @@
         <v>50915</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -6006,13 +5994,13 @@
         <v>51963</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -6021,13 +6009,13 @@
         <v>102878</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,7 +6071,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6095,13 +6083,13 @@
         <v>41327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -6110,13 +6098,13 @@
         <v>29961</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6125,13 +6113,13 @@
         <v>71288</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6134,13 @@
         <v>43804</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6161,13 +6149,13 @@
         <v>26682</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -6176,13 +6164,13 @@
         <v>70486</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,7 +6226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6250,13 +6238,13 @@
         <v>40947</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6265,13 +6253,13 @@
         <v>23576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6280,13 +6268,13 @@
         <v>64523</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6289,13 @@
         <v>47283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6316,13 +6304,13 @@
         <v>49482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -6331,13 +6319,13 @@
         <v>96765</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6405,13 +6393,13 @@
         <v>71247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6420,13 +6408,13 @@
         <v>66909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6435,13 +6423,13 @@
         <v>138156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6444,13 @@
         <v>125482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -6471,13 +6459,13 @@
         <v>106358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>212</v>
@@ -6486,13 +6474,13 @@
         <v>231840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6548,13 @@
         <v>120288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6575,13 +6563,13 @@
         <v>112781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -6590,13 +6578,13 @@
         <v>233069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6599,13 @@
         <v>134770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -6626,13 +6614,13 @@
         <v>101507</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -6641,7 +6629,7 @@
         <v>236278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>450</v>
@@ -6715,7 +6703,7 @@
         <v>505119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>452</v>
@@ -6766,7 +6754,7 @@
         <v>671018</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>460</v>
@@ -6882,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F762586-A967-480C-892D-B71480425068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFC62F2-7874-40D2-BF3E-963649185A1F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7009,10 +6997,10 @@
         <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -7021,10 +7009,10 @@
         <v>30347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>473</v>
@@ -7036,7 +7024,7 @@
         <v>62701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>474</v>
@@ -7063,7 +7051,7 @@
         <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -7072,13 +7060,13 @@
         <v>30429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -7087,7 +7075,7 @@
         <v>66939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>481</v>
@@ -7349,10 +7337,10 @@
         <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7355,13 @@
         <v>45611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -7382,13 +7370,13 @@
         <v>32230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7397,13 +7385,13 @@
         <v>77841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7459,13 @@
         <v>28060</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -7486,13 +7474,13 @@
         <v>31803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -7501,13 +7489,13 @@
         <v>59863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7510,13 @@
         <v>47368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -7537,13 +7525,13 @@
         <v>46614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -7552,13 +7540,13 @@
         <v>93982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7626,13 +7614,13 @@
         <v>1443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7641,13 +7629,13 @@
         <v>4225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7656,13 +7644,13 @@
         <v>5668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7665,13 @@
         <v>35557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -7692,13 +7680,13 @@
         <v>28611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -7707,13 +7695,13 @@
         <v>64168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,7 +7757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7781,13 +7769,13 @@
         <v>18784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7796,13 +7784,13 @@
         <v>14057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -7811,13 +7799,13 @@
         <v>32841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7820,13 @@
         <v>58578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -7847,13 +7835,13 @@
         <v>37545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -7862,13 +7850,13 @@
         <v>96122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,7 +7912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7936,13 +7924,13 @@
         <v>80907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -7951,13 +7939,13 @@
         <v>87569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -7966,13 +7954,13 @@
         <v>168475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7975,13 @@
         <v>88197</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -8002,13 +7990,13 @@
         <v>72909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
@@ -8079,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8112,7 +8100,7 @@
         <v>589</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -8121,13 +8109,13 @@
         <v>102999</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8130,13 @@
         <v>167805</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -8157,13 +8145,13 @@
         <v>90440</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -8172,13 +8160,13 @@
         <v>258245</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8234,13 @@
         <v>293753</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>419</v>
@@ -8261,13 +8249,13 @@
         <v>303240</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>714</v>
@@ -8276,13 +8264,13 @@
         <v>596994</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>610</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8285,13 @@
         <v>555173</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>525</v>
@@ -8312,13 +8300,13 @@
         <v>397632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>1037</v>
@@ -8327,13 +8315,13 @@
         <v>952805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC34A35-6C29-4F69-BC0F-7AD80AE45808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1657E6A-0008-42E6-9569-DC23F6C438F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F75A2D8-94D2-4671-A50A-C13B796D47C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58D79E56-E155-43FF-8221-29F659FEF30D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,77%</t>
   </si>
   <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1747 +140,1741 @@
     <t>34,35%</t>
   </si>
   <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>41,49%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>58,51%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
   </si>
   <si>
     <t>63,95%</t>
@@ -2295,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D1C0B2-289F-4AC4-B1AF-BF1493C74967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46279D3D-C006-492E-892E-11A6096C73FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3510,7 +3504,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3519,13 +3513,13 @@
         <v>57917</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -3534,13 +3528,13 @@
         <v>150204</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3549,13 @@
         <v>223737</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -3570,13 +3564,13 @@
         <v>127300</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>338</v>
@@ -3585,13 +3579,13 @@
         <v>351036</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3653,13 @@
         <v>420548</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>289</v>
@@ -3674,13 +3668,13 @@
         <v>298010</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>696</v>
@@ -3689,10 +3683,10 @@
         <v>718558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>114</v>
@@ -3710,13 +3704,13 @@
         <v>960280</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -3725,13 +3719,13 @@
         <v>556464</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1486</v>
@@ -3740,13 +3734,13 @@
         <v>1516744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3796,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8877A70E-7EBF-4146-9DB6-C571A33BAE3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95D7123-9CDB-417C-A2D0-D009341E0A91}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3942,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +3987,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4032,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4081,13 @@
         <v>104731</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -4102,13 +4096,13 @@
         <v>65994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -4117,13 +4111,13 @@
         <v>170725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4132,13 @@
         <v>103374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4153,13 +4147,13 @@
         <v>85224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -4168,13 +4162,13 @@
         <v>188598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4236,13 @@
         <v>49866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4257,13 +4251,13 @@
         <v>47615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -4272,13 +4266,13 @@
         <v>97481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4287,13 @@
         <v>77171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4308,13 +4302,13 @@
         <v>36114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4323,13 +4317,13 @@
         <v>113286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4391,13 @@
         <v>152414</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4412,13 +4406,13 @@
         <v>133411</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>259</v>
@@ -4427,13 +4421,13 @@
         <v>285824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4442,13 @@
         <v>113801</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4463,13 +4457,13 @@
         <v>68503</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -4478,13 +4472,13 @@
         <v>182305</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4546,13 @@
         <v>49153</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4567,13 +4561,13 @@
         <v>34901</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4582,13 +4576,13 @@
         <v>84054</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4597,13 @@
         <v>42246</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4618,10 +4612,10 @@
         <v>30538</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>247</v>
@@ -4713,7 +4707,7 @@
         <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4722,13 +4716,13 @@
         <v>38125</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4737,13 +4731,13 @@
         <v>83304</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4752,13 @@
         <v>38561</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4773,13 +4767,13 @@
         <v>28754</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -4788,13 +4782,13 @@
         <v>67315</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4856,13 @@
         <v>107519</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4877,13 +4871,13 @@
         <v>95426</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -4892,13 +4886,13 @@
         <v>202945</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4907,13 @@
         <v>171722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -4928,13 +4922,13 @@
         <v>97845</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
         <v>253</v>
@@ -4943,13 +4937,13 @@
         <v>269567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5011,13 @@
         <v>117733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5032,13 +5026,13 @@
         <v>80685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5047,13 +5041,13 @@
         <v>198418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5062,13 @@
         <v>178421</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>114</v>
@@ -5083,13 +5077,13 @@
         <v>126058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -5098,13 +5092,13 @@
         <v>304479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5166,13 @@
         <v>626595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>455</v>
@@ -5187,13 +5181,13 @@
         <v>496158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M28" s="7">
         <v>1030</v>
@@ -5202,13 +5196,13 @@
         <v>1122752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5217,13 @@
         <v>725297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>438</v>
@@ -5238,13 +5232,13 @@
         <v>473036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>1130</v>
@@ -5253,13 +5247,13 @@
         <v>1198334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5309,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33083098-AF5B-4414-98F7-A874FC5B8781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34618F04-710F-4399-9FB2-4FA8B0A16E36}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5457,13 @@
         <v>66639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5481,10 +5475,10 @@
         <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5493,13 +5487,13 @@
         <v>108523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5508,13 @@
         <v>39692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5532,10 +5526,10 @@
         <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -5544,13 +5538,13 @@
         <v>71522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5612,13 @@
         <v>40999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5633,13 +5627,13 @@
         <v>37327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -5648,13 +5642,13 @@
         <v>78326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5663,13 @@
         <v>168042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -5684,13 +5678,13 @@
         <v>103521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>256</v>
@@ -5699,13 +5693,13 @@
         <v>271564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5767,13 @@
         <v>35301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5788,13 +5782,13 @@
         <v>40176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -5803,13 +5797,13 @@
         <v>75477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5818,13 @@
         <v>61030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5839,13 +5833,13 @@
         <v>41227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5854,13 +5848,13 @@
         <v>102257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5922,13 @@
         <v>88372</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5943,13 +5937,13 @@
         <v>56794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5958,13 +5952,13 @@
         <v>145166</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5973,13 @@
         <v>50915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5994,13 +5988,13 @@
         <v>51963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -6009,13 +6003,13 @@
         <v>102878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6077,13 @@
         <v>41327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -6098,13 +6092,13 @@
         <v>29961</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6113,13 +6107,13 @@
         <v>71288</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6128,13 @@
         <v>43804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6149,13 +6143,13 @@
         <v>26682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -6164,13 +6158,13 @@
         <v>70486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,10 +6235,10 @@
         <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6253,13 +6247,13 @@
         <v>23576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6268,13 +6262,13 @@
         <v>64523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6283,13 @@
         <v>47283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6304,13 +6298,13 @@
         <v>49482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -6319,13 +6313,13 @@
         <v>96765</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6387,13 @@
         <v>71247</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6408,13 +6402,13 @@
         <v>66909</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6423,13 +6417,13 @@
         <v>138156</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,10 +6438,10 @@
         <v>125482</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>428</v>
@@ -6462,7 +6456,7 @@
         <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>430</v>
@@ -6599,13 +6593,13 @@
         <v>134770</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -6614,13 +6608,13 @@
         <v>101507</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -6629,13 +6623,13 @@
         <v>236278</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6697,13 @@
         <v>505119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
         <v>395</v>
@@ -6718,13 +6712,13 @@
         <v>409409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>865</v>
@@ -6733,13 +6727,13 @@
         <v>914528</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6748,13 @@
         <v>671018</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>498</v>
@@ -6769,13 +6763,13 @@
         <v>512570</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>1122</v>
@@ -6784,13 +6778,13 @@
         <v>1183588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6840,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFC62F2-7874-40D2-BF3E-963649185A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C10773-D874-4887-B0AD-B1DF59F85ED1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +6988,13 @@
         <v>32354</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -7009,13 +7003,13 @@
         <v>30347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
@@ -7024,13 +7018,13 @@
         <v>62701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7039,13 @@
         <v>36509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -7060,13 +7054,13 @@
         <v>30429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -7075,13 +7069,13 @@
         <v>66939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7143,13 @@
         <v>53170</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7164,13 +7158,13 @@
         <v>45652</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -7179,13 +7173,13 @@
         <v>98822</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7194,13 @@
         <v>75549</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -7215,13 +7209,13 @@
         <v>58853</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -7230,13 +7224,13 @@
         <v>134402</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7298,13 @@
         <v>30248</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -7319,10 +7313,10 @@
         <v>35376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>47</v>
@@ -7334,13 +7328,13 @@
         <v>65624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7349,13 @@
         <v>45611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -7370,13 +7364,13 @@
         <v>32230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7385,13 +7379,13 @@
         <v>77841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7453,13 @@
         <v>28060</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -7474,13 +7468,13 @@
         <v>31803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -7489,13 +7483,13 @@
         <v>59863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7504,13 @@
         <v>47368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -7525,13 +7519,13 @@
         <v>46614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -7540,13 +7534,13 @@
         <v>93982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7608,13 @@
         <v>1443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7629,13 +7623,13 @@
         <v>4225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7644,13 +7638,13 @@
         <v>5668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7659,13 @@
         <v>35557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -7680,13 +7674,13 @@
         <v>28611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -7695,13 +7689,13 @@
         <v>64168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7763,13 @@
         <v>18784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>550</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7784,13 +7778,13 @@
         <v>14057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -7799,13 +7793,13 @@
         <v>32841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7814,13 @@
         <v>58578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>557</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -7835,13 +7829,13 @@
         <v>37545</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -7850,13 +7844,13 @@
         <v>96122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7918,13 @@
         <v>80907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -7939,13 +7933,13 @@
         <v>87569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -7954,13 +7948,13 @@
         <v>168475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7969,13 @@
         <v>88197</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -7990,13 +7984,13 @@
         <v>72909</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
@@ -8005,13 +7999,13 @@
         <v>161106</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8073,13 @@
         <v>48787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -8094,13 +8088,13 @@
         <v>54212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -8109,13 +8103,13 @@
         <v>102999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8124,13 @@
         <v>167805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -8145,13 +8139,13 @@
         <v>90440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
@@ -8160,13 +8154,13 @@
         <v>258245</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8228,13 @@
         <v>293753</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>419</v>
@@ -8249,13 +8243,13 @@
         <v>303240</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M28" s="7">
         <v>714</v>
@@ -8264,13 +8258,13 @@
         <v>596994</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>56</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8279,13 @@
         <v>555173</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>525</v>
@@ -8300,13 +8294,13 @@
         <v>397632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M29" s="7">
         <v>1037</v>
@@ -8315,13 +8309,13 @@
         <v>952805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>613</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>611</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8371,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1657E6A-0008-42E6-9569-DC23F6C438F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2D6F97-A6DF-4071-8DC1-E76E2472E479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58D79E56-E155-43FF-8221-29F659FEF30D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C345BB88-C365-4A49-A6B3-42DAFFB13821}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="634">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>50,33%</t>
@@ -686,744 +737,756 @@
     <t>60,5%</t>
   </si>
   <si>
-    <t>57,25%</t>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
     <t>56,41%</t>
   </si>
   <si>
@@ -1436,448 +1499,448 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
   </si>
   <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46279D3D-C006-492E-892E-11A6096C73FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8BB358-8B47-4EA9-B1A4-FDC87722ABD3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3406,7 +3469,7 @@
         <v>90</v>
       </c>
       <c r="I23" s="7">
-        <v>91149</v>
+        <v>91150</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -3457,7 +3520,7 @@
         <v>157</v>
       </c>
       <c r="I24" s="7">
-        <v>160416</v>
+        <v>160417</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3820,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95D7123-9CDB-417C-A2D0-D009341E0A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7EB6AF-54FF-4B76-96CF-7CF40CFBCD6F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3938,43 +4001,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D4" s="7">
+        <v>92263</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="I4" s="7">
+        <v>62532</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N4" s="7">
+        <v>154795</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,43 +4052,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44217</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I5" s="7">
+        <v>35399</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="N5" s="7">
+        <v>79616</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,43 +4103,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="D6" s="7">
+        <v>136480</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I6" s="7">
+        <v>97931</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="N6" s="7">
+        <v>234411</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4162,13 @@
         <v>104731</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -4096,13 +4177,13 @@
         <v>65994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -4111,13 +4192,13 @@
         <v>170725</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,10 +4213,10 @@
         <v>103374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>48</v>
@@ -4147,13 +4228,13 @@
         <v>85224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -4162,13 +4243,13 @@
         <v>188598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4317,13 @@
         <v>49866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4251,13 +4332,13 @@
         <v>47615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -4266,13 +4347,13 @@
         <v>97481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4368,13 @@
         <v>77171</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4302,13 +4383,13 @@
         <v>36114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4317,13 +4398,13 @@
         <v>113286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,49 +4466,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>152414</v>
+        <v>60151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
+        <v>69</v>
+      </c>
+      <c r="I13" s="7">
+        <v>70879</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" s="7">
         <v>121</v>
       </c>
-      <c r="I13" s="7">
-        <v>133411</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="7">
-        <v>259</v>
-      </c>
       <c r="N13" s="7">
-        <v>285824</v>
+        <v>131030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,49 +4517,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>113801</v>
+        <v>69584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>68503</v>
+        <v>33105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>182305</v>
+        <v>102689</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,10 +4568,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D15" s="7">
-        <v>266215</v>
+        <v>129735</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4502,10 +4583,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I15" s="7">
-        <v>201914</v>
+        <v>103984</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4517,10 +4598,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>432</v>
+        <v>217</v>
       </c>
       <c r="N15" s="7">
-        <v>468129</v>
+        <v>233719</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4546,13 +4627,13 @@
         <v>49153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4561,13 +4642,13 @@
         <v>34901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4576,13 +4657,13 @@
         <v>84054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4678,13 @@
         <v>42246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4612,13 +4693,13 @@
         <v>30538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -4627,13 +4708,13 @@
         <v>72785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,10 +4782,10 @@
         <v>45179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>104</v>
@@ -4716,13 +4797,13 @@
         <v>38125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4731,13 +4812,13 @@
         <v>83304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4833,13 @@
         <v>38561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -4767,13 +4848,13 @@
         <v>28754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -4782,13 +4863,13 @@
         <v>67315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4937,13 @@
         <v>107519</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4871,13 +4952,13 @@
         <v>95426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -4889,10 +4970,10 @@
         <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4988,13 @@
         <v>171722</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -4922,13 +5003,13 @@
         <v>97845</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>253</v>
@@ -4940,10 +5021,10 @@
         <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5092,13 @@
         <v>117733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -5026,13 +5107,13 @@
         <v>80685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5041,13 +5122,13 @@
         <v>198418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,10 +5143,10 @@
         <v>178421</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>120</v>
@@ -5077,13 +5158,13 @@
         <v>126058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -5092,13 +5173,13 @@
         <v>304479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5247,13 @@
         <v>626595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>455</v>
@@ -5181,13 +5262,13 @@
         <v>496158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>1030</v>
@@ -5196,13 +5277,13 @@
         <v>1122752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5298,13 @@
         <v>725297</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H29" s="7">
         <v>438</v>
@@ -5232,13 +5313,13 @@
         <v>473036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>1130</v>
@@ -5247,13 +5328,13 @@
         <v>1198334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34618F04-710F-4399-9FB2-4FA8B0A16E36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E97270-3B22-426C-B0F5-EAB1B565030F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5538,13 @@
         <v>66639</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -5475,10 +5556,10 @@
         <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5487,13 +5568,13 @@
         <v>108523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5589,13 @@
         <v>39692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5526,10 +5607,10 @@
         <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -5538,13 +5619,13 @@
         <v>71522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5693,13 @@
         <v>40999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5627,13 +5708,13 @@
         <v>37327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -5642,13 +5723,13 @@
         <v>78326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5744,13 @@
         <v>168042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -5678,13 +5759,13 @@
         <v>103521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>256</v>
@@ -5693,13 +5774,13 @@
         <v>271564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5848,13 @@
         <v>35301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5782,13 +5863,13 @@
         <v>40176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -5797,13 +5878,13 @@
         <v>75477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5899,13 @@
         <v>61030</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5833,13 +5914,13 @@
         <v>41227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5848,13 +5929,13 @@
         <v>102257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +6003,13 @@
         <v>88372</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5937,13 +6018,13 @@
         <v>56794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5952,13 +6033,13 @@
         <v>145166</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6054,13 @@
         <v>50915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5988,13 +6069,13 @@
         <v>51963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -6003,13 +6084,13 @@
         <v>102878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6158,13 @@
         <v>41327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -6092,13 +6173,13 @@
         <v>29961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -6110,10 +6191,10 @@
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6209,13 @@
         <v>43804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6143,13 +6224,13 @@
         <v>26682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -6161,10 +6242,10 @@
         <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6313,13 @@
         <v>40947</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6247,13 +6328,13 @@
         <v>23576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6262,13 +6343,13 @@
         <v>64523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6364,13 @@
         <v>47283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6298,13 +6379,13 @@
         <v>49482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -6313,13 +6394,13 @@
         <v>96765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6468,13 @@
         <v>71247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6402,13 +6483,13 @@
         <v>66909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -6417,13 +6498,13 @@
         <v>138156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6519,13 @@
         <v>125482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -6453,13 +6534,13 @@
         <v>106358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>212</v>
@@ -6468,13 +6549,13 @@
         <v>231840</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6623,13 @@
         <v>120288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6557,13 +6638,13 @@
         <v>112781</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -6572,13 +6653,13 @@
         <v>233069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6674,13 @@
         <v>134770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -6608,13 +6689,13 @@
         <v>101507</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -6623,13 +6704,13 @@
         <v>236278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,10 +6781,10 @@
         <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>395</v>
@@ -6712,13 +6793,13 @@
         <v>409409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>865</v>
@@ -6727,13 +6808,13 @@
         <v>914528</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,10 +6832,10 @@
         <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>498</v>
@@ -6763,13 +6844,13 @@
         <v>512570</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>219</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>1122</v>
@@ -6778,13 +6859,13 @@
         <v>1183588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C10773-D874-4887-B0AD-B1DF59F85ED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A627F-A452-4DD4-831B-C639964ACD3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,46 +7066,46 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>32354</v>
+        <v>37592</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>30347</v>
+        <v>32226</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>62701</v>
+        <v>69818</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,46 +7117,46 @@
         <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>36509</v>
+        <v>46752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
       </c>
       <c r="I5" s="7">
-        <v>30429</v>
+        <v>32805</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>66939</v>
+        <v>79557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,7 +7168,7 @@
         <v>74</v>
       </c>
       <c r="D6" s="7">
-        <v>68863</v>
+        <v>84344</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7102,7 +7183,7 @@
         <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>60776</v>
+        <v>65031</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7117,7 +7198,7 @@
         <v>189</v>
       </c>
       <c r="N6" s="7">
-        <v>129640</v>
+        <v>149375</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7140,46 +7221,46 @@
         <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>53170</v>
+        <v>51953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>45652</v>
+        <v>42875</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
       </c>
       <c r="N7" s="7">
-        <v>98822</v>
+        <v>94829</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,46 +7272,46 @@
         <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>75549</v>
+        <v>76470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
       </c>
       <c r="I8" s="7">
-        <v>58853</v>
+        <v>55076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
       </c>
       <c r="N8" s="7">
-        <v>134402</v>
+        <v>131545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,7 +7323,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="7">
-        <v>128719</v>
+        <v>128423</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7257,7 +7338,7 @@
         <v>128</v>
       </c>
       <c r="I9" s="7">
-        <v>104505</v>
+        <v>97951</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7272,7 +7353,7 @@
         <v>218</v>
       </c>
       <c r="N9" s="7">
-        <v>233224</v>
+        <v>226374</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7295,46 +7376,46 @@
         <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>30248</v>
+        <v>29515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>35376</v>
+        <v>33324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>65624</v>
+        <v>62839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,46 +7427,46 @@
         <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>45611</v>
+        <v>44703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>32230</v>
+        <v>30297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>77841</v>
+        <v>75000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7478,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="7">
-        <v>75859</v>
+        <v>74218</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7412,7 +7493,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="7">
-        <v>67606</v>
+        <v>63621</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7427,7 +7508,7 @@
         <v>177</v>
       </c>
       <c r="N12" s="7">
-        <v>143465</v>
+        <v>137839</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7450,46 +7531,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>28060</v>
+        <v>27133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>31803</v>
+        <v>29267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>59863</v>
+        <v>56401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,46 +7582,46 @@
         <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>47368</v>
+        <v>47008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>46614</v>
+        <v>43371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>428</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>93982</v>
+        <v>90379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7633,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>75428</v>
+        <v>74141</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7567,7 +7648,7 @@
         <v>90</v>
       </c>
       <c r="I15" s="7">
-        <v>78417</v>
+        <v>72638</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7582,7 +7663,7 @@
         <v>150</v>
       </c>
       <c r="N15" s="7">
-        <v>153845</v>
+        <v>146780</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7605,46 +7686,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1443</v>
+        <v>1303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>4225</v>
+        <v>3863</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>5668</v>
+        <v>5166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,46 +7737,46 @@
         <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>35557</v>
+        <v>32463</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
       </c>
       <c r="I17" s="7">
-        <v>28611</v>
+        <v>25993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>64168</v>
+        <v>58456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7788,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>37000</v>
+        <v>33766</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7722,7 +7803,7 @@
         <v>69</v>
       </c>
       <c r="I18" s="7">
-        <v>32836</v>
+        <v>29856</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7737,7 +7818,7 @@
         <v>126</v>
       </c>
       <c r="N18" s="7">
-        <v>69836</v>
+        <v>63622</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7760,46 +7841,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>18784</v>
+        <v>17919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>568</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>14057</v>
+        <v>13022</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>32841</v>
+        <v>30941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,46 +7892,46 @@
         <v>68</v>
       </c>
       <c r="D20" s="7">
-        <v>58578</v>
+        <v>57137</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>37545</v>
+        <v>35056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
       </c>
       <c r="N20" s="7">
-        <v>96122</v>
+        <v>92193</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7943,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="7">
-        <v>77362</v>
+        <v>75056</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7877,7 +7958,7 @@
         <v>77</v>
       </c>
       <c r="I21" s="7">
-        <v>51602</v>
+        <v>48078</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7892,7 +7973,7 @@
         <v>171</v>
       </c>
       <c r="N21" s="7">
-        <v>128963</v>
+        <v>123134</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7915,46 +7996,46 @@
         <v>85</v>
       </c>
       <c r="D22" s="7">
-        <v>80907</v>
+        <v>84205</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
       </c>
       <c r="I22" s="7">
-        <v>87569</v>
+        <v>81560</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
       </c>
       <c r="N22" s="7">
-        <v>168475</v>
+        <v>165765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,46 +8047,46 @@
         <v>70</v>
       </c>
       <c r="D23" s="7">
-        <v>88197</v>
+        <v>88813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
       </c>
       <c r="I23" s="7">
-        <v>72909</v>
+        <v>68510</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
       </c>
       <c r="N23" s="7">
-        <v>161106</v>
+        <v>157323</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,7 +8098,7 @@
         <v>155</v>
       </c>
       <c r="D24" s="7">
-        <v>169104</v>
+        <v>173018</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8032,7 +8113,7 @@
         <v>213</v>
       </c>
       <c r="I24" s="7">
-        <v>160478</v>
+        <v>150070</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8047,7 +8128,7 @@
         <v>368</v>
       </c>
       <c r="N24" s="7">
-        <v>329581</v>
+        <v>323088</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8070,46 +8151,46 @@
         <v>50</v>
       </c>
       <c r="D25" s="7">
-        <v>48787</v>
+        <v>41673</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
       </c>
       <c r="I25" s="7">
-        <v>54212</v>
+        <v>45571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
       </c>
       <c r="N25" s="7">
-        <v>102999</v>
+        <v>87245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>521</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,46 +8202,46 @@
         <v>141</v>
       </c>
       <c r="D26" s="7">
-        <v>167805</v>
+        <v>142168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
       </c>
       <c r="I26" s="7">
-        <v>90440</v>
+        <v>73589</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>233</v>
       </c>
       <c r="N26" s="7">
-        <v>258245</v>
+        <v>215756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,7 +8253,7 @@
         <v>191</v>
       </c>
       <c r="D27" s="7">
-        <v>216592</v>
+        <v>183841</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8187,7 +8268,7 @@
         <v>161</v>
       </c>
       <c r="I27" s="7">
-        <v>144652</v>
+        <v>119160</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8202,7 +8283,7 @@
         <v>352</v>
       </c>
       <c r="N27" s="7">
-        <v>361244</v>
+        <v>303001</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8225,46 +8306,46 @@
         <v>295</v>
       </c>
       <c r="D28" s="7">
-        <v>293753</v>
+        <v>291294</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>201</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>419</v>
       </c>
       <c r="I28" s="7">
-        <v>303240</v>
+        <v>281709</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>623</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="M28" s="7">
         <v>714</v>
       </c>
       <c r="N28" s="7">
-        <v>596994</v>
+        <v>573003</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>56</v>
+        <v>625</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,46 +8357,46 @@
         <v>512</v>
       </c>
       <c r="D29" s="7">
-        <v>555173</v>
+        <v>535514</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>525</v>
       </c>
       <c r="I29" s="7">
-        <v>397632</v>
+        <v>364696</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>1037</v>
       </c>
       <c r="N29" s="7">
-        <v>952805</v>
+        <v>900209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8408,7 @@
         <v>807</v>
       </c>
       <c r="D30" s="7">
-        <v>848926</v>
+        <v>826808</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8342,7 +8423,7 @@
         <v>944</v>
       </c>
       <c r="I30" s="7">
-        <v>700872</v>
+        <v>646405</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8357,7 +8438,7 @@
         <v>1751</v>
       </c>
       <c r="N30" s="7">
-        <v>1549799</v>
+        <v>1473212</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
